--- a/Plan/GameData/UnitDatabase.xlsx
+++ b/Plan/GameData/UnitDatabase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\HotSix_UnityProject\Assets\MJW\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9178DB9-FDB3-4BDC-9346-675D55DAC771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442DE6C9-33C2-40E2-981B-B09540AAE6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C8C67E49-83DE-4577-B719-CD1A0B61A9C8}"/>
+    <workbookView xWindow="11910" yWindow="0" windowWidth="16890" windowHeight="15600" xr2:uid="{C8C67E49-83DE-4577-B719-CD1A0B61A9C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -671,20 +671,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B314BCB-E593-44EC-B286-CA3B7F6A6F0F}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="1"/>
-    <col min="2" max="2" width="9.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.08203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.58203125" style="1"/>
+    <col min="1" max="1" width="8.625" style="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -778,7 +778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -908,7 +908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -973,7 +973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1061,25 +1061,25 @@
         <v>130</v>
       </c>
       <c r="H7" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I7" s="4">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="J7" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K7" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L7" s="4">
         <v>5</v>
       </c>
       <c r="M7" s="4">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" s="5">
         <v>10</v>
@@ -1103,7 +1103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
